--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -46,11 +46,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1547,29 +1549,29 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
+      <selection pane="bottomLeft" activeCell="O48" activeCellId="0" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="23" min="17" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27101,7 +27103,8 @@
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
       <c r="O28" s="2" t="n">
-        <v>2255</v>
+        <f aca="false">C28</f>
+        <v>4255</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -28151,7 +28154,8 @@
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="2" t="n">
-        <v>2256</v>
+        <f aca="false">C29</f>
+        <v>4148</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -29201,7 +29205,8 @@
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="2" t="n">
-        <v>2257</v>
+        <f aca="false">C30</f>
+        <v>4149</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -30251,7 +30256,8 @@
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
       <c r="O31" s="2" t="n">
-        <v>2258</v>
+        <f aca="false">C31</f>
+        <v>4150</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -33412,8 +33418,9 @@
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="26"/>
-      <c r="O34" s="26" t="n">
-        <v>2306</v>
+      <c r="O34" s="2" t="n">
+        <f aca="false">C34</f>
+        <v>4306</v>
       </c>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -34463,7 +34470,8 @@
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="2" t="n">
-        <v>2191</v>
+        <f aca="false">C35</f>
+        <v>4191</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -35513,7 +35521,8 @@
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="2" t="n">
-        <v>2192</v>
+        <f aca="false">C36</f>
+        <v>4688</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -36563,7 +36572,8 @@
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
       <c r="O37" s="2" t="n">
-        <v>2193</v>
+        <f aca="false">C37</f>
+        <v>4256</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -37613,7 +37623,8 @@
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
       <c r="O38" s="2" t="n">
-        <v>2219</v>
+        <f aca="false">C38</f>
+        <v>4219</v>
       </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -38663,7 +38674,8 @@
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="2" t="n">
-        <v>2307</v>
+        <f aca="false">C39</f>
+        <v>4307</v>
       </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -39713,7 +39725,8 @@
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
       <c r="O40" s="2" t="n">
-        <v>2315</v>
+        <f aca="false">C40</f>
+        <v>4315</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -40763,7 +40776,8 @@
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
       <c r="O41" s="2" t="n">
-        <v>2318</v>
+        <f aca="false">C41</f>
+        <v>4318</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -46112,6 +46126,7 @@
       </c>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="n">
+        <f aca="false">C48</f>
         <v>2537</v>
       </c>
       <c r="P48" s="5"/>
@@ -46211,6 +46226,7 @@
       <c r="M50" s="40"/>
       <c r="N50" s="40"/>
       <c r="O50" s="2" t="n">
+        <f aca="false">C50</f>
         <v>4310</v>
       </c>
       <c r="P50" s="35"/>
@@ -46260,6 +46276,7 @@
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
       <c r="O51" s="2" t="n">
+        <f aca="false">C51</f>
         <v>4330</v>
       </c>
       <c r="P51" s="35"/>
@@ -46402,8 +46419,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="47" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47260,20 +47277,20 @@
   <dimension ref="1:259"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55421,10 +55438,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55467,8 +55484,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55507,10 +55524,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55650,7 +55667,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -47,12 +47,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="294">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -672,7 +674,7 @@
     <t xml:space="preserve">number of scenes vs target</t>
   </si>
   <si>
-    <t xml:space="preserve">Выделенная секция лакомств</t>
+    <t xml:space="preserve">Dedicated C&amp;T section</t>
   </si>
   <si>
     <t xml:space="preserve">В торговой точке В ПРИЛЕГАЮЩЕЙ К КАССАМ ЗОНЕ присутствуют лакомства для кошек и/или собак компании Марс</t>
@@ -681,7 +683,7 @@
     <t xml:space="preserve">To return true If there is a photo in the scene"Прилегающая к кассам зона” and an assortment of Mars</t>
   </si>
   <si>
-    <t xml:space="preserve">Прилегающая к кассам зона</t>
+    <t xml:space="preserve">Shelf End</t>
   </si>
   <si>
     <t xml:space="preserve">KPI name</t>
@@ -1026,6 +1028,9 @@
     <t xml:space="preserve">Навеска</t>
   </si>
   <si>
+    <t xml:space="preserve">Прилегающая к кассам зона</t>
+  </si>
+  <si>
     <t xml:space="preserve">ДМП Nestle</t>
   </si>
   <si>
@@ -1036,6 +1041,9 @@
   </si>
   <si>
     <t xml:space="preserve">Основная полка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выделенная секция лакомств</t>
   </si>
 </sst>
 </file>
@@ -1548,30 +1556,29 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O48" activeCellId="0" sqref="O48"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="O52" activeCellId="0" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="23" min="17" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -46290,7 +46297,7 @@
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
     </row>
-    <row r="52" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28"/>
       <c r="B52" s="2" t="n">
         <v>2019</v>
@@ -46341,7 +46348,7 @@
       <c r="X52" s="46"/>
       <c r="Y52" s="43"/>
     </row>
-    <row r="53" customFormat="false" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28"/>
       <c r="B53" s="2" t="n">
         <v>2019</v>
@@ -46419,8 +46426,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="47" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47283,14 +47290,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55438,10 +55445,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55484,8 +55491,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55524,10 +55531,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55667,7 +55674,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55683,32 +55690,32 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="58" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="58" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -48,13 +48,15 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1556,29 +1558,29 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="O52" activeCellId="0" sqref="O52"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="23" min="17" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -46426,8 +46428,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="47" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47290,14 +47292,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55445,10 +55447,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55491,8 +55493,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55531,10 +55533,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55674,7 +55676,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -61,10 +62,11 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1428,24 +1430,24 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="N37" activeCellId="0" sqref="N37"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="90.085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="90.9433198380567"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="26" min="17" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="9.10526315789474"/>
@@ -4386,8 +4388,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="15" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5250,14 +5252,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="17" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13405,10 +13407,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13451,8 +13453,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13491,10 +13493,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13634,7 +13636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -54,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Z$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -63,10 +64,11 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1430,24 +1432,24 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="90.9433198380567"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="64.5910931174089"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="26" min="17" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="9.10526315789474"/>
@@ -4159,7 +4161,7 @@
         <v>2019</v>
       </c>
       <c r="C50" s="9" t="n">
-        <v>4310</v>
+        <v>4697</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
@@ -4209,7 +4211,7 @@
         <v>2019</v>
       </c>
       <c r="C51" s="9" t="n">
-        <v>4330</v>
+        <v>4698</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
@@ -4388,8 +4390,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="15" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5252,14 +5254,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="17" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="15" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13407,10 +13409,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13453,8 +13455,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13493,10 +13495,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13636,7 +13638,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,13 +23,14 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
@@ -44,12 +45,12 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
@@ -74,6 +75,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -92,10 +94,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1335,8 +1338,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1700,28 +1703,28 @@
   </sheetPr>
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I67" activeCellId="0" sqref="I67"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -4887,8 +4890,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4927,10 +4930,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5070,7 +5073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5134,11 +5137,11 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
       <selection pane="bottomRight" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5146,16 +5149,16 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -6662,7 +6665,7 @@
       <c r="AA27" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA3"/>
+  <autoFilter ref="A1:AA27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6687,8 +6690,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6869,8 +6872,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7732,8 +7735,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7802,14 +7805,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -15957,7 +15960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16033,10 +16036,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
@@ -45,13 +46,13 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
@@ -76,6 +77,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -95,10 +97,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -848,7 +851,8 @@
     <t xml:space="preserve">В магазине тип выкладки А</t>
   </si>
   <si>
-    <t xml:space="preserve">If ((4269+4271)/(4270+4272))*100% &gt;= 100% then 1</t>
+    <t xml:space="preserve">If (((4269+4271)/(4270+4272))*100%)&gt;= 100% then True
+Meaning if there is only SKU Mars then True</t>
   </si>
   <si>
     <t xml:space="preserve">Store type</t>
@@ -1703,11 +1707,11 @@
   </sheetPr>
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
       <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -1715,16 +1719,16 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -4890,8 +4894,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4930,10 +4934,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5073,7 +5077,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5135,30 +5139,30 @@
     <tabColor rgb="FFCCFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -6635,7 +6639,7 @@
       <c r="G27" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="13" t="s">
         <v>212</v>
       </c>
       <c r="I27" s="10" t="s">
@@ -6664,8 +6668,9 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
     </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AA27"/>
+  <autoFilter ref="A1:AA3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6690,8 +6695,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6872,8 +6877,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7735,8 +7740,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7805,14 +7810,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -15960,7 +15965,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -16036,10 +16041,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
@@ -32,6 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
@@ -46,14 +47,14 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
@@ -78,6 +79,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -98,10 +100,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1191,50 +1194,48 @@
     <t xml:space="preserve">EAN</t>
   </si>
   <si>
-    <t xml:space="preserve">4607065003999
-4607065004019
-4607065004057
-4607065004118
-4607065375966
-4607065376000
-4607065376062
-4607065372057
-5000159373111
-5000159438698
-4011100157361
-4607065003838
-4607065374792
-5000159438674
-4607065374877
-4607065375034
-4607065378424
-4011100158399
-5000159438926
-5000159438940
-4607065371166
-4607065372217
-4607065372156
-4607065003944
-4607065375225
-4607065002688
-4607065376048
-4607065377984
-4607065375119
-4607065372071
-4607065371180
-4607065371227
-5000159438735
-4770608256067
-4607065372804
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000159450881
-4607065002862
-4607065371203
-4607065001612
-4607065371241
-</t>
+    <t xml:space="preserve">4607065003999,
+4607065004019,
+4607065004057,
+4607065004118,
+4607065375966,
+4607065376000,
+4607065376062,
+4607065372057,
+5000159373111,
+5000159438698,
+4011100157361,
+4607065003838,
+4607065374792,
+5000159438674,
+4607065374877,
+4607065375034,
+4607065378424,
+4011100158399,
+5000159438926,
+5000159438940,
+4607065371166,
+4607065372217,
+4607065372156,
+4607065003944,
+4607065375225,
+4607065002688,
+4607065376048,
+4607065377984,
+4607065375119,
+4607065372071,
+4607065371180,
+4607065371227,
+5000159438735,
+4770608256067,
+4607065372804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000159450881,
+4607065002862,
+4607065371203,
+4607065001612,
+4607065371241</t>
   </si>
   <si>
     <t xml:space="preserve">num. of shelves min</t>
@@ -1719,16 +1720,16 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.3765182186235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -4894,8 +4895,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4934,10 +4935,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5077,7 +5078,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5141,28 +5142,28 @@
   </sheetPr>
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.3765182186235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -6670,7 +6671,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AA3"/>
+  <autoFilter ref="A1:AA27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6695,8 +6696,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6877,8 +6878,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7740,8 +7741,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7810,14 +7811,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -15959,13 +15960,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15974,7 +15975,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="511.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="500.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
         <v>325</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="72.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
         <v>326</v>
       </c>
@@ -16041,10 +16042,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
@@ -33,6 +33,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
@@ -47,15 +48,15 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
@@ -80,6 +81,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -101,10 +103,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -116,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="346">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -1158,10 +1161,13 @@
     <t xml:space="preserve">&gt;=8</t>
   </si>
   <si>
+    <t xml:space="preserve">&gt;=0&lt;1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4261/4264)+(4265/4351)</t>
+  </si>
+  <si>
     <t xml:space="preserve">&gt;=1.6&lt;2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4261/4264)+(4265/4351)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;=2.3&lt;2.8</t>
@@ -1713,23 +1719,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="I38" activeCellId="1" sqref="B57:B60 I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.9109311740891"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="101.761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -4889,26 +4895,26 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B57:B60 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4930,15 +4936,15 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="B57:B60 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4947,7 +4953,7 @@
         <v>220</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +4961,7 @@
         <v>221</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4969,7 @@
         <v>222</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +4977,7 @@
         <v>223</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,7 +4985,7 @@
         <v>224</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,7 +4993,7 @@
         <v>225</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +5001,7 @@
         <v>228</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,7 +5009,7 @@
         <v>229</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,7 +5017,7 @@
         <v>230</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +5025,7 @@
         <v>226</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,7 +5033,7 @@
         <v>227</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5041,7 @@
         <v>215</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,7 +5049,7 @@
         <v>217</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +5057,7 @@
         <v>218</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5073,53 +5079,53 @@
   <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="B57:B60 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5147,23 +5153,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="1" sqref="B57:B60 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="70.9109311740891"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="101.761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -6671,7 +6677,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AA27"/>
+  <autoFilter ref="A1:AA3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6691,13 +6697,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B57:B60 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6872,14 +6878,14 @@
   <dimension ref="1:58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="B57:B60 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7736,13 +7742,13 @@
   <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B57:B60 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7802,23 +7808,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:259"/>
+  <dimension ref="1:301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9036,10 +9042,10 @@
         <v>220</v>
       </c>
       <c r="C44" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D44" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E44" s="19" t="n">
         <v>4154</v>
@@ -9068,10 +9074,10 @@
         <v>221</v>
       </c>
       <c r="C45" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D45" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E45" s="19" t="n">
         <v>4154</v>
@@ -9100,10 +9106,10 @@
         <v>222</v>
       </c>
       <c r="C46" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D46" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E46" s="19" t="n">
         <v>4154</v>
@@ -9132,10 +9138,10 @@
         <v>223</v>
       </c>
       <c r="C47" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D47" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E47" s="19" t="n">
         <v>4154</v>
@@ -9164,10 +9170,10 @@
         <v>224</v>
       </c>
       <c r="C48" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D48" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E48" s="19" t="n">
         <v>4154</v>
@@ -9196,10 +9202,10 @@
         <v>220</v>
       </c>
       <c r="C49" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D49" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E49" s="19" t="n">
         <v>4174</v>
@@ -9228,10 +9234,10 @@
         <v>221</v>
       </c>
       <c r="C50" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D50" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E50" s="19" t="n">
         <v>4174</v>
@@ -9260,10 +9266,10 @@
         <v>222</v>
       </c>
       <c r="C51" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D51" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E51" s="19" t="n">
         <v>4174</v>
@@ -9292,10 +9298,10 @@
         <v>223</v>
       </c>
       <c r="C52" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D52" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E52" s="19" t="n">
         <v>4174</v>
@@ -9324,10 +9330,10 @@
         <v>224</v>
       </c>
       <c r="C53" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D53" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E53" s="19" t="n">
         <v>4174</v>
@@ -9356,10 +9362,10 @@
         <v>220</v>
       </c>
       <c r="C54" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D54" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E54" s="19" t="n">
         <v>4194</v>
@@ -9388,10 +9394,10 @@
         <v>221</v>
       </c>
       <c r="C55" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D55" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E55" s="19" t="n">
         <v>4194</v>
@@ -9420,10 +9426,10 @@
         <v>222</v>
       </c>
       <c r="C56" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D56" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E56" s="19" t="n">
         <v>4194</v>
@@ -9452,10 +9458,10 @@
         <v>223</v>
       </c>
       <c r="C57" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D57" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E57" s="19" t="n">
         <v>4194</v>
@@ -9484,10 +9490,10 @@
         <v>224</v>
       </c>
       <c r="C58" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D58" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E58" s="19" t="n">
         <v>4194</v>
@@ -9516,10 +9522,10 @@
         <v>225</v>
       </c>
       <c r="C59" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D59" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E59" s="19" t="n">
         <v>4159</v>
@@ -9548,10 +9554,10 @@
         <v>228</v>
       </c>
       <c r="C60" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D60" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E60" s="19" t="n">
         <v>4159</v>
@@ -9580,10 +9586,10 @@
         <v>229</v>
       </c>
       <c r="C61" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D61" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E61" s="19" t="n">
         <v>4159</v>
@@ -9612,10 +9618,10 @@
         <v>230</v>
       </c>
       <c r="C62" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D62" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E62" s="19" t="n">
         <v>4159</v>
@@ -9644,10 +9650,10 @@
         <v>226</v>
       </c>
       <c r="C63" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D63" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E63" s="19" t="n">
         <v>4159</v>
@@ -9676,10 +9682,10 @@
         <v>227</v>
       </c>
       <c r="C64" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D64" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E64" s="19" t="n">
         <v>4159</v>
@@ -9708,10 +9714,10 @@
         <v>225</v>
       </c>
       <c r="C65" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D65" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E65" s="19" t="n">
         <v>4179</v>
@@ -9740,10 +9746,10 @@
         <v>228</v>
       </c>
       <c r="C66" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D66" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E66" s="19" t="n">
         <v>4179</v>
@@ -9772,10 +9778,10 @@
         <v>229</v>
       </c>
       <c r="C67" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D67" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E67" s="19" t="n">
         <v>4179</v>
@@ -9804,10 +9810,10 @@
         <v>230</v>
       </c>
       <c r="C68" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D68" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E68" s="19" t="n">
         <v>4179</v>
@@ -9836,10 +9842,10 @@
         <v>226</v>
       </c>
       <c r="C69" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D69" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E69" s="19" t="n">
         <v>4179</v>
@@ -9868,10 +9874,10 @@
         <v>227</v>
       </c>
       <c r="C70" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D70" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E70" s="19" t="n">
         <v>4179</v>
@@ -9900,10 +9906,10 @@
         <v>225</v>
       </c>
       <c r="C71" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D71" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E71" s="19" t="n">
         <v>4199</v>
@@ -9932,10 +9938,10 @@
         <v>228</v>
       </c>
       <c r="C72" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D72" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E72" s="19" t="n">
         <v>4199</v>
@@ -9964,10 +9970,10 @@
         <v>229</v>
       </c>
       <c r="C73" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D73" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E73" s="19" t="n">
         <v>4199</v>
@@ -9996,10 +10002,10 @@
         <v>230</v>
       </c>
       <c r="C74" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D74" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E74" s="19" t="n">
         <v>4199</v>
@@ -10028,10 +10034,10 @@
         <v>226</v>
       </c>
       <c r="C75" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D75" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E75" s="19" t="n">
         <v>4199</v>
@@ -10060,10 +10066,10 @@
         <v>227</v>
       </c>
       <c r="C76" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D76" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E76" s="19" t="n">
         <v>4199</v>
@@ -10092,10 +10098,10 @@
         <v>215</v>
       </c>
       <c r="C77" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D77" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E77" s="19" t="n">
         <v>4166</v>
@@ -10124,10 +10130,10 @@
         <v>217</v>
       </c>
       <c r="C78" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D78" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E78" s="19" t="n">
         <v>4166</v>
@@ -10156,10 +10162,10 @@
         <v>218</v>
       </c>
       <c r="C79" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D79" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E79" s="19" t="n">
         <v>4166</v>
@@ -10188,10 +10194,10 @@
         <v>215</v>
       </c>
       <c r="C80" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D80" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E80" s="19" t="n">
         <v>4186</v>
@@ -10220,10 +10226,10 @@
         <v>217</v>
       </c>
       <c r="C81" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D81" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E81" s="19" t="n">
         <v>4186</v>
@@ -10252,10 +10258,10 @@
         <v>218</v>
       </c>
       <c r="C82" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D82" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E82" s="19" t="n">
         <v>4186</v>
@@ -10284,10 +10290,10 @@
         <v>215</v>
       </c>
       <c r="C83" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D83" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E83" s="19" t="n">
         <v>4206</v>
@@ -10316,10 +10322,10 @@
         <v>217</v>
       </c>
       <c r="C84" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D84" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E84" s="19" t="n">
         <v>4206</v>
@@ -10348,10 +10354,10 @@
         <v>218</v>
       </c>
       <c r="C85" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="27" t="n">
         <v>1.6</v>
-      </c>
-      <c r="D85" s="27" t="n">
-        <v>2.3</v>
       </c>
       <c r="E85" s="19" t="n">
         <v>4206</v>
@@ -10380,16 +10386,16 @@
         <v>220</v>
       </c>
       <c r="C86" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D86" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D86" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E86" s="19" t="n">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>312</v>
@@ -10412,16 +10418,16 @@
         <v>221</v>
       </c>
       <c r="C87" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D87" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D87" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E87" s="19" t="n">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="F87" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>312</v>
@@ -10444,16 +10450,16 @@
         <v>222</v>
       </c>
       <c r="C88" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D88" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D88" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E88" s="19" t="n">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>312</v>
@@ -10476,16 +10482,16 @@
         <v>223</v>
       </c>
       <c r="C89" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D89" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D89" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E89" s="19" t="n">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>312</v>
@@ -10508,16 +10514,16 @@
         <v>224</v>
       </c>
       <c r="C90" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D90" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D90" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E90" s="19" t="n">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>312</v>
@@ -10540,16 +10546,16 @@
         <v>220</v>
       </c>
       <c r="C91" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D91" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D91" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E91" s="19" t="n">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>312</v>
@@ -10572,16 +10578,16 @@
         <v>221</v>
       </c>
       <c r="C92" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D92" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D92" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E92" s="19" t="n">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>312</v>
@@ -10604,16 +10610,16 @@
         <v>222</v>
       </c>
       <c r="C93" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D93" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D93" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E93" s="19" t="n">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>312</v>
@@ -10636,16 +10642,16 @@
         <v>223</v>
       </c>
       <c r="C94" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D94" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D94" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E94" s="19" t="n">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>312</v>
@@ -10668,16 +10674,16 @@
         <v>224</v>
       </c>
       <c r="C95" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D95" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D95" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E95" s="19" t="n">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>312</v>
@@ -10700,16 +10706,16 @@
         <v>220</v>
       </c>
       <c r="C96" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D96" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D96" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E96" s="19" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>312</v>
@@ -10732,16 +10738,16 @@
         <v>221</v>
       </c>
       <c r="C97" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D97" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D97" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E97" s="19" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F97" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>312</v>
@@ -10764,16 +10770,16 @@
         <v>222</v>
       </c>
       <c r="C98" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D98" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D98" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E98" s="19" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>312</v>
@@ -10796,16 +10802,16 @@
         <v>223</v>
       </c>
       <c r="C99" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D99" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D99" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E99" s="19" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>312</v>
@@ -10828,16 +10834,16 @@
         <v>224</v>
       </c>
       <c r="C100" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D100" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D100" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E100" s="19" t="n">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>312</v>
@@ -10860,16 +10866,16 @@
         <v>225</v>
       </c>
       <c r="C101" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D101" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D101" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E101" s="19" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>312</v>
@@ -10892,16 +10898,16 @@
         <v>228</v>
       </c>
       <c r="C102" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D102" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D102" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E102" s="19" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>312</v>
@@ -10924,16 +10930,16 @@
         <v>229</v>
       </c>
       <c r="C103" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D103" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D103" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E103" s="19" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="F103" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>312</v>
@@ -10956,16 +10962,16 @@
         <v>230</v>
       </c>
       <c r="C104" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D104" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D104" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E104" s="19" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>312</v>
@@ -10988,16 +10994,16 @@
         <v>226</v>
       </c>
       <c r="C105" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D105" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D105" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E105" s="19" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>312</v>
@@ -11020,16 +11026,16 @@
         <v>227</v>
       </c>
       <c r="C106" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D106" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D106" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E106" s="19" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="F106" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>312</v>
@@ -11052,16 +11058,16 @@
         <v>225</v>
       </c>
       <c r="C107" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D107" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D107" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E107" s="19" t="n">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>312</v>
@@ -11084,16 +11090,16 @@
         <v>228</v>
       </c>
       <c r="C108" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D108" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D108" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E108" s="19" t="n">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>312</v>
@@ -11116,16 +11122,16 @@
         <v>229</v>
       </c>
       <c r="C109" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D109" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D109" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E109" s="19" t="n">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>312</v>
@@ -11148,16 +11154,16 @@
         <v>230</v>
       </c>
       <c r="C110" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D110" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D110" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E110" s="19" t="n">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="F110" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>312</v>
@@ -11180,16 +11186,16 @@
         <v>226</v>
       </c>
       <c r="C111" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D111" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D111" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E111" s="19" t="n">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>312</v>
@@ -11212,16 +11218,16 @@
         <v>227</v>
       </c>
       <c r="C112" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D112" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D112" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E112" s="19" t="n">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>312</v>
@@ -11244,16 +11250,16 @@
         <v>225</v>
       </c>
       <c r="C113" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D113" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D113" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E113" s="19" t="n">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>312</v>
@@ -11276,16 +11282,16 @@
         <v>228</v>
       </c>
       <c r="C114" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D114" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D114" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E114" s="19" t="n">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>312</v>
@@ -11308,16 +11314,16 @@
         <v>229</v>
       </c>
       <c r="C115" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D115" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D115" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E115" s="19" t="n">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>312</v>
@@ -11340,16 +11346,16 @@
         <v>230</v>
       </c>
       <c r="C116" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D116" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D116" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E116" s="19" t="n">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F116" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>312</v>
@@ -11372,16 +11378,16 @@
         <v>226</v>
       </c>
       <c r="C117" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D117" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D117" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E117" s="19" t="n">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F117" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>312</v>
@@ -11404,16 +11410,16 @@
         <v>227</v>
       </c>
       <c r="C118" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D118" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D118" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E118" s="19" t="n">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F118" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>312</v>
@@ -11436,16 +11442,16 @@
         <v>215</v>
       </c>
       <c r="C119" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D119" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D119" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E119" s="19" t="n">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>312</v>
@@ -11468,16 +11474,16 @@
         <v>217</v>
       </c>
       <c r="C120" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D120" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D120" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E120" s="19" t="n">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="F120" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>312</v>
@@ -11500,16 +11506,16 @@
         <v>218</v>
       </c>
       <c r="C121" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D121" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D121" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E121" s="19" t="n">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="F121" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>312</v>
@@ -11532,16 +11538,16 @@
         <v>215</v>
       </c>
       <c r="C122" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D122" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D122" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E122" s="19" t="n">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="F122" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>312</v>
@@ -11564,16 +11570,16 @@
         <v>217</v>
       </c>
       <c r="C123" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D123" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D123" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E123" s="19" t="n">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>312</v>
@@ -11596,16 +11602,16 @@
         <v>218</v>
       </c>
       <c r="C124" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D124" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D124" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E124" s="19" t="n">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="F124" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>312</v>
@@ -11628,16 +11634,16 @@
         <v>215</v>
       </c>
       <c r="C125" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D125" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D125" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E125" s="19" t="n">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="F125" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>312</v>
@@ -11660,16 +11666,16 @@
         <v>217</v>
       </c>
       <c r="C126" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D126" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D126" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E126" s="19" t="n">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>312</v>
@@ -11692,16 +11698,16 @@
         <v>218</v>
       </c>
       <c r="C127" s="27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D127" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="D127" s="27" t="n">
-        <v>2.8</v>
-      </c>
       <c r="E127" s="19" t="n">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>312</v>
@@ -11724,25 +11730,25 @@
         <v>220</v>
       </c>
       <c r="C128" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D128" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="E128" s="19" t="n">
+        <v>4155</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I128" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E128" s="19" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F128" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>314</v>
@@ -11756,25 +11762,25 @@
         <v>221</v>
       </c>
       <c r="C129" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D129" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="E129" s="19" t="n">
+        <v>4155</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I129" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E129" s="19" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F129" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>314</v>
@@ -11788,25 +11794,25 @@
         <v>222</v>
       </c>
       <c r="C130" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D130" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="E130" s="19" t="n">
+        <v>4155</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E130" s="19" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F130" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H130" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J130" s="0" t="s">
         <v>314</v>
@@ -11820,25 +11826,25 @@
         <v>223</v>
       </c>
       <c r="C131" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D131" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="E131" s="19" t="n">
+        <v>4155</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I131" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E131" s="19" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F131" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H131" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I131" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J131" s="0" t="s">
         <v>314</v>
@@ -11852,25 +11858,25 @@
         <v>224</v>
       </c>
       <c r="C132" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D132" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="E132" s="19" t="n">
+        <v>4155</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I132" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E132" s="19" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F132" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G132" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H132" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I132" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J132" s="0" t="s">
         <v>314</v>
@@ -11884,25 +11890,25 @@
         <v>220</v>
       </c>
       <c r="C133" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D133" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="E133" s="19" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I133" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E133" s="19" t="n">
-        <v>4176</v>
-      </c>
-      <c r="F133" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G133" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H133" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I133" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>314</v>
@@ -11916,25 +11922,25 @@
         <v>221</v>
       </c>
       <c r="C134" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D134" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="E134" s="19" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I134" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E134" s="19" t="n">
-        <v>4176</v>
-      </c>
-      <c r="F134" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H134" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I134" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J134" s="0" t="s">
         <v>314</v>
@@ -11948,25 +11954,25 @@
         <v>222</v>
       </c>
       <c r="C135" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D135" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="E135" s="19" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I135" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E135" s="19" t="n">
-        <v>4176</v>
-      </c>
-      <c r="F135" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G135" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H135" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I135" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J135" s="0" t="s">
         <v>314</v>
@@ -11980,25 +11986,25 @@
         <v>223</v>
       </c>
       <c r="C136" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D136" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D136" s="27" t="s">
+      <c r="E136" s="19" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I136" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E136" s="19" t="n">
-        <v>4176</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H136" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J136" s="0" t="s">
         <v>314</v>
@@ -12012,25 +12018,25 @@
         <v>224</v>
       </c>
       <c r="C137" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D137" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D137" s="27" t="s">
+      <c r="E137" s="19" t="n">
+        <v>4175</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I137" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E137" s="19" t="n">
-        <v>4176</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G137" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I137" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J137" s="0" t="s">
         <v>314</v>
@@ -12044,25 +12050,25 @@
         <v>220</v>
       </c>
       <c r="C138" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D138" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="E138" s="19" t="n">
+        <v>4195</v>
+      </c>
+      <c r="F138" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I138" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E138" s="19" t="n">
-        <v>4196</v>
-      </c>
-      <c r="F138" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I138" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J138" s="0" t="s">
         <v>314</v>
@@ -12076,25 +12082,25 @@
         <v>221</v>
       </c>
       <c r="C139" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D139" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D139" s="27" t="s">
+      <c r="E139" s="19" t="n">
+        <v>4195</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I139" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E139" s="19" t="n">
-        <v>4196</v>
-      </c>
-      <c r="F139" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I139" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J139" s="0" t="s">
         <v>314</v>
@@ -12108,25 +12114,25 @@
         <v>222</v>
       </c>
       <c r="C140" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D140" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D140" s="27" t="s">
+      <c r="E140" s="19" t="n">
+        <v>4195</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I140" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E140" s="19" t="n">
-        <v>4196</v>
-      </c>
-      <c r="F140" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G140" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I140" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J140" s="0" t="s">
         <v>314</v>
@@ -12140,25 +12146,25 @@
         <v>223</v>
       </c>
       <c r="C141" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D141" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D141" s="27" t="s">
+      <c r="E141" s="19" t="n">
+        <v>4195</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I141" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E141" s="19" t="n">
-        <v>4196</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J141" s="0" t="s">
         <v>314</v>
@@ -12172,25 +12178,25 @@
         <v>224</v>
       </c>
       <c r="C142" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D142" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D142" s="27" t="s">
+      <c r="E142" s="19" t="n">
+        <v>4195</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I142" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="E142" s="19" t="n">
-        <v>4196</v>
-      </c>
-      <c r="F142" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="J142" s="0" t="s">
         <v>314</v>
@@ -12204,16 +12210,16 @@
         <v>225</v>
       </c>
       <c r="C143" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D143" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D143" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E143" s="19" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F143" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>312</v>
@@ -12222,7 +12228,7 @@
         <v>309</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J143" s="0" t="s">
         <v>314</v>
@@ -12236,16 +12242,16 @@
         <v>228</v>
       </c>
       <c r="C144" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D144" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D144" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E144" s="19" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F144" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G144" s="0" t="s">
         <v>312</v>
@@ -12254,7 +12260,7 @@
         <v>309</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J144" s="0" t="s">
         <v>314</v>
@@ -12268,16 +12274,16 @@
         <v>229</v>
       </c>
       <c r="C145" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D145" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D145" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E145" s="19" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F145" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G145" s="0" t="s">
         <v>312</v>
@@ -12286,7 +12292,7 @@
         <v>309</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J145" s="0" t="s">
         <v>314</v>
@@ -12300,16 +12306,16 @@
         <v>230</v>
       </c>
       <c r="C146" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D146" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D146" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E146" s="19" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F146" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G146" s="0" t="s">
         <v>312</v>
@@ -12318,7 +12324,7 @@
         <v>309</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J146" s="0" t="s">
         <v>314</v>
@@ -12332,16 +12338,16 @@
         <v>226</v>
       </c>
       <c r="C147" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D147" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D147" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E147" s="19" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F147" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G147" s="0" t="s">
         <v>312</v>
@@ -12350,7 +12356,7 @@
         <v>309</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J147" s="0" t="s">
         <v>314</v>
@@ -12364,16 +12370,16 @@
         <v>227</v>
       </c>
       <c r="C148" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D148" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D148" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E148" s="19" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G148" s="0" t="s">
         <v>312</v>
@@ -12382,7 +12388,7 @@
         <v>309</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J148" s="0" t="s">
         <v>314</v>
@@ -12396,16 +12402,16 @@
         <v>225</v>
       </c>
       <c r="C149" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D149" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D149" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E149" s="19" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G149" s="0" t="s">
         <v>312</v>
@@ -12414,7 +12420,7 @@
         <v>309</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J149" s="0" t="s">
         <v>314</v>
@@ -12428,16 +12434,16 @@
         <v>228</v>
       </c>
       <c r="C150" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D150" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D150" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E150" s="19" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G150" s="0" t="s">
         <v>312</v>
@@ -12446,7 +12452,7 @@
         <v>309</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J150" s="0" t="s">
         <v>314</v>
@@ -12460,16 +12466,16 @@
         <v>229</v>
       </c>
       <c r="C151" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D151" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D151" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E151" s="19" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G151" s="0" t="s">
         <v>312</v>
@@ -12478,7 +12484,7 @@
         <v>309</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J151" s="0" t="s">
         <v>314</v>
@@ -12492,16 +12498,16 @@
         <v>230</v>
       </c>
       <c r="C152" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D152" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D152" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E152" s="19" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G152" s="0" t="s">
         <v>312</v>
@@ -12510,7 +12516,7 @@
         <v>309</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J152" s="0" t="s">
         <v>314</v>
@@ -12524,16 +12530,16 @@
         <v>226</v>
       </c>
       <c r="C153" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D153" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D153" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E153" s="19" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G153" s="0" t="s">
         <v>312</v>
@@ -12542,7 +12548,7 @@
         <v>309</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J153" s="0" t="s">
         <v>314</v>
@@ -12556,16 +12562,16 @@
         <v>227</v>
       </c>
       <c r="C154" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D154" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D154" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E154" s="19" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F154" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G154" s="0" t="s">
         <v>312</v>
@@ -12574,7 +12580,7 @@
         <v>309</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J154" s="0" t="s">
         <v>314</v>
@@ -12588,16 +12594,16 @@
         <v>225</v>
       </c>
       <c r="C155" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D155" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D155" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E155" s="19" t="n">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G155" s="0" t="s">
         <v>312</v>
@@ -12606,7 +12612,7 @@
         <v>309</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J155" s="0" t="s">
         <v>314</v>
@@ -12620,16 +12626,16 @@
         <v>228</v>
       </c>
       <c r="C156" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D156" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D156" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E156" s="19" t="n">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F156" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G156" s="0" t="s">
         <v>312</v>
@@ -12638,7 +12644,7 @@
         <v>309</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J156" s="0" t="s">
         <v>314</v>
@@ -12652,16 +12658,16 @@
         <v>229</v>
       </c>
       <c r="C157" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D157" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D157" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E157" s="19" t="n">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F157" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G157" s="0" t="s">
         <v>312</v>
@@ -12670,7 +12676,7 @@
         <v>309</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J157" s="0" t="s">
         <v>314</v>
@@ -12684,16 +12690,16 @@
         <v>230</v>
       </c>
       <c r="C158" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D158" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D158" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E158" s="19" t="n">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F158" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G158" s="0" t="s">
         <v>312</v>
@@ -12702,7 +12708,7 @@
         <v>309</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J158" s="0" t="s">
         <v>314</v>
@@ -12716,16 +12722,16 @@
         <v>226</v>
       </c>
       <c r="C159" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D159" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D159" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E159" s="19" t="n">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G159" s="0" t="s">
         <v>312</v>
@@ -12734,7 +12740,7 @@
         <v>309</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J159" s="0" t="s">
         <v>314</v>
@@ -12748,16 +12754,16 @@
         <v>227</v>
       </c>
       <c r="C160" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D160" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D160" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E160" s="19" t="n">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G160" s="0" t="s">
         <v>312</v>
@@ -12766,7 +12772,7 @@
         <v>309</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J160" s="0" t="s">
         <v>314</v>
@@ -12780,16 +12786,16 @@
         <v>215</v>
       </c>
       <c r="C161" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D161" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D161" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E161" s="19" t="n">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="F161" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G161" s="0" t="s">
         <v>312</v>
@@ -12798,7 +12804,7 @@
         <v>309</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J161" s="0" t="s">
         <v>314</v>
@@ -12812,16 +12818,16 @@
         <v>217</v>
       </c>
       <c r="C162" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D162" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D162" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E162" s="19" t="n">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G162" s="0" t="s">
         <v>312</v>
@@ -12830,7 +12836,7 @@
         <v>309</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J162" s="0" t="s">
         <v>314</v>
@@ -12844,16 +12850,16 @@
         <v>218</v>
       </c>
       <c r="C163" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D163" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D163" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E163" s="19" t="n">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G163" s="0" t="s">
         <v>312</v>
@@ -12862,7 +12868,7 @@
         <v>309</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J163" s="0" t="s">
         <v>314</v>
@@ -12876,16 +12882,16 @@
         <v>215</v>
       </c>
       <c r="C164" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D164" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D164" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E164" s="19" t="n">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G164" s="0" t="s">
         <v>312</v>
@@ -12894,7 +12900,7 @@
         <v>309</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J164" s="0" t="s">
         <v>314</v>
@@ -12908,16 +12914,16 @@
         <v>217</v>
       </c>
       <c r="C165" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D165" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D165" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E165" s="19" t="n">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G165" s="0" t="s">
         <v>312</v>
@@ -12926,7 +12932,7 @@
         <v>309</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J165" s="0" t="s">
         <v>314</v>
@@ -12940,16 +12946,16 @@
         <v>218</v>
       </c>
       <c r="C166" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D166" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D166" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E166" s="19" t="n">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G166" s="0" t="s">
         <v>312</v>
@@ -12958,7 +12964,7 @@
         <v>309</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J166" s="0" t="s">
         <v>314</v>
@@ -12972,16 +12978,16 @@
         <v>215</v>
       </c>
       <c r="C167" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D167" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D167" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E167" s="19" t="n">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G167" s="0" t="s">
         <v>312</v>
@@ -12990,7 +12996,7 @@
         <v>309</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J167" s="0" t="s">
         <v>314</v>
@@ -13004,16 +13010,16 @@
         <v>217</v>
       </c>
       <c r="C168" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D168" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D168" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E168" s="19" t="n">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G168" s="0" t="s">
         <v>312</v>
@@ -13022,7 +13028,7 @@
         <v>309</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J168" s="0" t="s">
         <v>314</v>
@@ -13036,16 +13042,16 @@
         <v>218</v>
       </c>
       <c r="C169" s="27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D169" s="27" t="n">
         <v>2.8</v>
       </c>
-      <c r="D169" s="27" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E169" s="19" t="n">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G169" s="0" t="s">
         <v>312</v>
@@ -13054,7 +13060,7 @@
         <v>309</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J169" s="0" t="s">
         <v>314</v>
@@ -13065,19 +13071,19 @@
         <v>307</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C170" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D170" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E170" s="19" t="n">
-        <v>4162</v>
+        <v>4156</v>
       </c>
       <c r="F170" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G170" s="0" t="s">
         <v>312</v>
@@ -13086,7 +13092,7 @@
         <v>309</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J170" s="0" t="s">
         <v>314</v>
@@ -13097,19 +13103,19 @@
         <v>307</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C171" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D171" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E171" s="19" t="n">
-        <v>4162</v>
+        <v>4156</v>
       </c>
       <c r="F171" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G171" s="0" t="s">
         <v>312</v>
@@ -13118,7 +13124,7 @@
         <v>309</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J171" s="0" t="s">
         <v>314</v>
@@ -13129,19 +13135,19 @@
         <v>307</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C172" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D172" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E172" s="19" t="n">
-        <v>4162</v>
+        <v>4156</v>
       </c>
       <c r="F172" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G172" s="0" t="s">
         <v>312</v>
@@ -13150,7 +13156,7 @@
         <v>309</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J172" s="0" t="s">
         <v>314</v>
@@ -13161,19 +13167,19 @@
         <v>307</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C173" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D173" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E173" s="19" t="n">
-        <v>4162</v>
+        <v>4156</v>
       </c>
       <c r="F173" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G173" s="0" t="s">
         <v>312</v>
@@ -13182,7 +13188,7 @@
         <v>309</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J173" s="0" t="s">
         <v>314</v>
@@ -13193,19 +13199,19 @@
         <v>307</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C174" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D174" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E174" s="19" t="n">
-        <v>4162</v>
+        <v>4156</v>
       </c>
       <c r="F174" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G174" s="0" t="s">
         <v>312</v>
@@ -13214,7 +13220,7 @@
         <v>309</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J174" s="0" t="s">
         <v>314</v>
@@ -13225,19 +13231,19 @@
         <v>310</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C175" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D175" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E175" s="19" t="n">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="F175" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G175" s="0" t="s">
         <v>312</v>
@@ -13246,7 +13252,7 @@
         <v>309</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J175" s="0" t="s">
         <v>314</v>
@@ -13257,19 +13263,19 @@
         <v>310</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C176" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D176" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E176" s="19" t="n">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="F176" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G176" s="0" t="s">
         <v>312</v>
@@ -13278,7 +13284,7 @@
         <v>309</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J176" s="0" t="s">
         <v>314</v>
@@ -13289,19 +13295,19 @@
         <v>310</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C177" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D177" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E177" s="19" t="n">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="F177" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G177" s="0" t="s">
         <v>312</v>
@@ -13310,7 +13316,7 @@
         <v>309</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J177" s="0" t="s">
         <v>314</v>
@@ -13321,19 +13327,19 @@
         <v>310</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C178" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D178" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E178" s="19" t="n">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="F178" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G178" s="0" t="s">
         <v>312</v>
@@ -13342,7 +13348,7 @@
         <v>309</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J178" s="0" t="s">
         <v>314</v>
@@ -13353,19 +13359,19 @@
         <v>310</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C179" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D179" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E179" s="19" t="n">
-        <v>4182</v>
+        <v>4176</v>
       </c>
       <c r="F179" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G179" s="0" t="s">
         <v>312</v>
@@ -13374,7 +13380,7 @@
         <v>309</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J179" s="0" t="s">
         <v>314</v>
@@ -13382,22 +13388,22 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C180" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D180" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E180" s="19" t="n">
-        <v>4182</v>
+        <v>4196</v>
       </c>
       <c r="F180" s="28" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G180" s="0" t="s">
         <v>312</v>
@@ -13406,7 +13412,7 @@
         <v>309</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J180" s="0" t="s">
         <v>314</v>
@@ -13414,22 +13420,22 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C181" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D181" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E181" s="19" t="n">
-        <v>4182</v>
+        <v>4196</v>
       </c>
       <c r="F181" s="28" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G181" s="0" t="s">
         <v>312</v>
@@ -13438,7 +13444,7 @@
         <v>309</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J181" s="0" t="s">
         <v>314</v>
@@ -13449,19 +13455,19 @@
         <v>311</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C182" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D182" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E182" s="19" t="n">
-        <v>4202</v>
+        <v>4196</v>
       </c>
       <c r="F182" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G182" s="0" t="s">
         <v>312</v>
@@ -13470,7 +13476,7 @@
         <v>309</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J182" s="0" t="s">
         <v>314</v>
@@ -13481,19 +13487,19 @@
         <v>311</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C183" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D183" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E183" s="19" t="n">
-        <v>4202</v>
+        <v>4196</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G183" s="0" t="s">
         <v>312</v>
@@ -13502,7 +13508,7 @@
         <v>309</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J183" s="0" t="s">
         <v>314</v>
@@ -13513,19 +13519,19 @@
         <v>311</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C184" s="27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D184" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="E184" s="19" t="n">
-        <v>4202</v>
+        <v>4196</v>
       </c>
       <c r="F184" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G184" s="0" t="s">
         <v>312</v>
@@ -13534,7 +13540,7 @@
         <v>309</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J184" s="0" t="s">
         <v>314</v>
@@ -13542,22 +13548,22 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C185" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D185" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D185" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E185" s="19" t="n">
-        <v>4202</v>
+        <v>4161</v>
       </c>
       <c r="F185" s="28" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="G185" s="0" t="s">
         <v>312</v>
@@ -13574,22 +13580,22 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C186" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D186" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D186" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E186" s="19" t="n">
-        <v>4202</v>
+        <v>4161</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="G186" s="0" t="s">
         <v>312</v>
@@ -13606,22 +13612,22 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B187" s="28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C187" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D187" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D187" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E187" s="19" t="n">
-        <v>4202</v>
+        <v>4161</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="G187" s="0" t="s">
         <v>312</v>
@@ -13641,19 +13647,19 @@
         <v>307</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C188" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D188" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D188" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E188" s="19" t="n">
-        <v>4169</v>
+        <v>4161</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G188" s="0" t="s">
         <v>312</v>
@@ -13673,19 +13679,19 @@
         <v>307</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C189" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D189" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D189" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E189" s="19" t="n">
-        <v>4169</v>
+        <v>4161</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G189" s="0" t="s">
         <v>312</v>
@@ -13705,19 +13711,19 @@
         <v>307</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C190" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D190" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D190" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E190" s="19" t="n">
-        <v>4169</v>
+        <v>4161</v>
       </c>
       <c r="F190" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G190" s="0" t="s">
         <v>312</v>
@@ -13737,19 +13743,19 @@
         <v>310</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C191" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D191" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D191" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E191" s="19" t="n">
-        <v>4189</v>
+        <v>4181</v>
       </c>
       <c r="F191" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G191" s="0" t="s">
         <v>312</v>
@@ -13769,19 +13775,19 @@
         <v>310</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C192" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D192" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D192" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E192" s="19" t="n">
-        <v>4189</v>
+        <v>4181</v>
       </c>
       <c r="F192" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G192" s="0" t="s">
         <v>312</v>
@@ -13801,19 +13807,19 @@
         <v>310</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C193" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D193" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D193" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E193" s="19" t="n">
-        <v>4189</v>
+        <v>4181</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G193" s="0" t="s">
         <v>312</v>
@@ -13830,22 +13836,22 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C194" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D194" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D194" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E194" s="19" t="n">
-        <v>4209</v>
+        <v>4181</v>
       </c>
       <c r="F194" s="28" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G194" s="0" t="s">
         <v>312</v>
@@ -13862,22 +13868,22 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C195" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D195" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D195" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E195" s="19" t="n">
-        <v>4209</v>
+        <v>4181</v>
       </c>
       <c r="F195" s="28" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G195" s="0" t="s">
         <v>312</v>
@@ -13894,22 +13900,22 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B196" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C196" s="27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D196" s="27" t="n">
         <v>3.8</v>
       </c>
-      <c r="D196" s="27" t="n">
-        <v>5</v>
-      </c>
       <c r="E196" s="19" t="n">
-        <v>4209</v>
+        <v>4181</v>
       </c>
       <c r="F196" s="28" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G196" s="0" t="s">
         <v>312</v>
@@ -13926,22 +13932,22 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B197" s="28" t="s">
         <v>225</v>
       </c>
       <c r="C197" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D197" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E197" s="19" t="n">
-        <v>4163</v>
+        <v>4201</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G197" s="0" t="s">
         <v>312</v>
@@ -13950,7 +13956,7 @@
         <v>309</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J197" s="0" t="s">
         <v>314</v>
@@ -13958,22 +13964,22 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B198" s="28" t="s">
         <v>228</v>
       </c>
       <c r="C198" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D198" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E198" s="19" t="n">
-        <v>4163</v>
+        <v>4201</v>
       </c>
       <c r="F198" s="28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G198" s="0" t="s">
         <v>312</v>
@@ -13982,7 +13988,7 @@
         <v>309</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J198" s="0" t="s">
         <v>314</v>
@@ -13990,22 +13996,22 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B199" s="28" t="s">
         <v>229</v>
       </c>
       <c r="C199" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D199" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E199" s="19" t="n">
-        <v>4163</v>
+        <v>4201</v>
       </c>
       <c r="F199" s="28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G199" s="0" t="s">
         <v>312</v>
@@ -14014,7 +14020,7 @@
         <v>309</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J199" s="0" t="s">
         <v>314</v>
@@ -14022,22 +14028,22 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B200" s="28" t="s">
         <v>230</v>
       </c>
       <c r="C200" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D200" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E200" s="19" t="n">
-        <v>4163</v>
+        <v>4201</v>
       </c>
       <c r="F200" s="28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G200" s="0" t="s">
         <v>312</v>
@@ -14046,7 +14052,7 @@
         <v>309</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J200" s="0" t="s">
         <v>314</v>
@@ -14054,22 +14060,22 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B201" s="28" t="s">
         <v>226</v>
       </c>
       <c r="C201" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D201" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E201" s="19" t="n">
-        <v>4163</v>
+        <v>4201</v>
       </c>
       <c r="F201" s="28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G201" s="0" t="s">
         <v>312</v>
@@ -14078,7 +14084,7 @@
         <v>309</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J201" s="0" t="s">
         <v>314</v>
@@ -14086,22 +14092,22 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B202" s="28" t="s">
         <v>227</v>
       </c>
       <c r="C202" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D202" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E202" s="19" t="n">
-        <v>4163</v>
+        <v>4201</v>
       </c>
       <c r="F202" s="28" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="G202" s="0" t="s">
         <v>312</v>
@@ -14110,7 +14116,7 @@
         <v>309</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J202" s="0" t="s">
         <v>314</v>
@@ -14118,22 +14124,22 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C203" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D203" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E203" s="19" t="n">
-        <v>4183</v>
+        <v>4168</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G203" s="0" t="s">
         <v>312</v>
@@ -14142,7 +14148,7 @@
         <v>309</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J203" s="0" t="s">
         <v>314</v>
@@ -14150,22 +14156,22 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C204" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D204" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E204" s="19" t="n">
-        <v>4183</v>
+        <v>4168</v>
       </c>
       <c r="F204" s="28" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G204" s="0" t="s">
         <v>312</v>
@@ -14174,7 +14180,7 @@
         <v>309</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J204" s="0" t="s">
         <v>314</v>
@@ -14182,22 +14188,22 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C205" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D205" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E205" s="19" t="n">
-        <v>4183</v>
+        <v>4168</v>
       </c>
       <c r="F205" s="28" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G205" s="0" t="s">
         <v>312</v>
@@ -14206,7 +14212,7 @@
         <v>309</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J205" s="0" t="s">
         <v>314</v>
@@ -14217,19 +14223,19 @@
         <v>310</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C206" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D206" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E206" s="19" t="n">
-        <v>4183</v>
+        <v>4188</v>
       </c>
       <c r="F206" s="28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G206" s="0" t="s">
         <v>312</v>
@@ -14238,7 +14244,7 @@
         <v>309</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J206" s="0" t="s">
         <v>314</v>
@@ -14249,19 +14255,19 @@
         <v>310</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C207" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D207" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E207" s="19" t="n">
-        <v>4183</v>
+        <v>4188</v>
       </c>
       <c r="F207" s="28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G207" s="0" t="s">
         <v>312</v>
@@ -14270,7 +14276,7 @@
         <v>309</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J207" s="0" t="s">
         <v>314</v>
@@ -14281,19 +14287,19 @@
         <v>310</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C208" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D208" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E208" s="19" t="n">
-        <v>4183</v>
+        <v>4188</v>
       </c>
       <c r="F208" s="28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G208" s="0" t="s">
         <v>312</v>
@@ -14302,7 +14308,7 @@
         <v>309</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J208" s="0" t="s">
         <v>314</v>
@@ -14313,19 +14319,19 @@
         <v>311</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C209" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D209" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E209" s="19" t="n">
-        <v>4203</v>
+        <v>4208</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G209" s="0" t="s">
         <v>312</v>
@@ -14334,7 +14340,7 @@
         <v>309</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J209" s="0" t="s">
         <v>314</v>
@@ -14345,19 +14351,19 @@
         <v>311</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C210" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D210" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E210" s="19" t="n">
-        <v>4203</v>
+        <v>4208</v>
       </c>
       <c r="F210" s="28" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G210" s="0" t="s">
         <v>312</v>
@@ -14366,7 +14372,7 @@
         <v>309</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J210" s="0" t="s">
         <v>314</v>
@@ -14377,19 +14383,19 @@
         <v>311</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C211" s="27" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="D211" s="27" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="E211" s="19" t="n">
-        <v>4203</v>
+        <v>4208</v>
       </c>
       <c r="F211" s="28" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G211" s="0" t="s">
         <v>312</v>
@@ -14398,7 +14404,7 @@
         <v>309</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J211" s="0" t="s">
         <v>314</v>
@@ -14406,22 +14412,22 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C212" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D212" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D212" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E212" s="19" t="n">
-        <v>4203</v>
+        <v>4162</v>
       </c>
       <c r="F212" s="28" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G212" s="0" t="s">
         <v>312</v>
@@ -14438,22 +14444,22 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B213" s="28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C213" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D213" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D213" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E213" s="19" t="n">
-        <v>4203</v>
+        <v>4162</v>
       </c>
       <c r="F213" s="28" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G213" s="0" t="s">
         <v>312</v>
@@ -14470,22 +14476,22 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C214" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D214" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D214" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E214" s="19" t="n">
-        <v>4203</v>
+        <v>4162</v>
       </c>
       <c r="F214" s="28" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="G214" s="0" t="s">
         <v>312</v>
@@ -14505,19 +14511,19 @@
         <v>307</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C215" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D215" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D215" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E215" s="19" t="n">
-        <v>4170</v>
+        <v>4162</v>
       </c>
       <c r="F215" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G215" s="0" t="s">
         <v>312</v>
@@ -14537,19 +14543,19 @@
         <v>307</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C216" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D216" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D216" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E216" s="19" t="n">
-        <v>4170</v>
+        <v>4162</v>
       </c>
       <c r="F216" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G216" s="0" t="s">
         <v>312</v>
@@ -14566,22 +14572,22 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B217" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C217" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D217" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D217" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E217" s="19" t="n">
-        <v>4170</v>
+        <v>4182</v>
       </c>
       <c r="F217" s="28" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G217" s="0" t="s">
         <v>312</v>
@@ -14601,19 +14607,19 @@
         <v>310</v>
       </c>
       <c r="B218" s="28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C218" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D218" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D218" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E218" s="19" t="n">
-        <v>4190</v>
+        <v>4182</v>
       </c>
       <c r="F218" s="28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G218" s="0" t="s">
         <v>312</v>
@@ -14633,19 +14639,19 @@
         <v>310</v>
       </c>
       <c r="B219" s="28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C219" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D219" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D219" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E219" s="19" t="n">
-        <v>4190</v>
+        <v>4182</v>
       </c>
       <c r="F219" s="28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G219" s="0" t="s">
         <v>312</v>
@@ -14665,19 +14671,19 @@
         <v>310</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C220" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D220" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D220" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E220" s="19" t="n">
-        <v>4190</v>
+        <v>4182</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G220" s="0" t="s">
         <v>312</v>
@@ -14694,22 +14700,22 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C221" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D221" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D221" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E221" s="19" t="n">
-        <v>4210</v>
+        <v>4182</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G221" s="0" t="s">
         <v>312</v>
@@ -14726,22 +14732,22 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C222" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D222" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D222" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E222" s="19" t="n">
-        <v>4210</v>
+        <v>4182</v>
       </c>
       <c r="F222" s="28" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G222" s="0" t="s">
         <v>312</v>
@@ -14758,22 +14764,22 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B223" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C223" s="27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D223" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D223" s="27" t="n">
-        <v>7</v>
-      </c>
       <c r="E223" s="19" t="n">
-        <v>4210</v>
+        <v>4182</v>
       </c>
       <c r="F223" s="28" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="G223" s="0" t="s">
         <v>312</v>
@@ -14790,22 +14796,22 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B224" s="28" t="s">
         <v>225</v>
       </c>
       <c r="C224" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D224" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E224" s="19" t="n">
-        <v>4164</v>
+        <v>4202</v>
       </c>
       <c r="F224" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G224" s="0" t="s">
         <v>312</v>
@@ -14814,7 +14820,7 @@
         <v>309</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J224" s="0" t="s">
         <v>314</v>
@@ -14822,22 +14828,22 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B225" s="28" t="s">
         <v>228</v>
       </c>
       <c r="C225" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D225" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E225" s="19" t="n">
-        <v>4164</v>
+        <v>4202</v>
       </c>
       <c r="F225" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G225" s="0" t="s">
         <v>312</v>
@@ -14846,7 +14852,7 @@
         <v>309</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J225" s="0" t="s">
         <v>314</v>
@@ -14854,22 +14860,22 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B226" s="28" t="s">
         <v>229</v>
       </c>
       <c r="C226" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D226" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D226" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E226" s="19" t="n">
-        <v>4164</v>
+        <v>4202</v>
       </c>
       <c r="F226" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G226" s="0" t="s">
         <v>312</v>
@@ -14878,7 +14884,7 @@
         <v>309</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J226" s="0" t="s">
         <v>314</v>
@@ -14886,22 +14892,22 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B227" s="28" t="s">
         <v>230</v>
       </c>
       <c r="C227" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D227" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E227" s="19" t="n">
-        <v>4164</v>
+        <v>4202</v>
       </c>
       <c r="F227" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G227" s="0" t="s">
         <v>312</v>
@@ -14910,7 +14916,7 @@
         <v>309</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J227" s="0" t="s">
         <v>314</v>
@@ -14918,22 +14924,22 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B228" s="28" t="s">
         <v>226</v>
       </c>
       <c r="C228" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D228" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D228" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E228" s="19" t="n">
-        <v>4164</v>
+        <v>4202</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G228" s="0" t="s">
         <v>312</v>
@@ -14942,7 +14948,7 @@
         <v>309</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J228" s="0" t="s">
         <v>314</v>
@@ -14950,22 +14956,22 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B229" s="28" t="s">
         <v>227</v>
       </c>
       <c r="C229" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D229" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D229" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E229" s="19" t="n">
-        <v>4164</v>
+        <v>4202</v>
       </c>
       <c r="F229" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G229" s="0" t="s">
         <v>312</v>
@@ -14974,7 +14980,7 @@
         <v>309</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J229" s="0" t="s">
         <v>314</v>
@@ -14982,22 +14988,22 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C230" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D230" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D230" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E230" s="19" t="n">
-        <v>4184</v>
+        <v>4169</v>
       </c>
       <c r="F230" s="28" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="G230" s="0" t="s">
         <v>312</v>
@@ -15006,7 +15012,7 @@
         <v>309</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J230" s="0" t="s">
         <v>314</v>
@@ -15014,22 +15020,22 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C231" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D231" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D231" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E231" s="19" t="n">
-        <v>4184</v>
+        <v>4169</v>
       </c>
       <c r="F231" s="28" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="G231" s="0" t="s">
         <v>312</v>
@@ -15038,7 +15044,7 @@
         <v>309</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J231" s="0" t="s">
         <v>314</v>
@@ -15046,22 +15052,22 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C232" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D232" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D232" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E232" s="19" t="n">
-        <v>4184</v>
+        <v>4169</v>
       </c>
       <c r="F232" s="28" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="G232" s="0" t="s">
         <v>312</v>
@@ -15070,7 +15076,7 @@
         <v>309</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J232" s="0" t="s">
         <v>314</v>
@@ -15081,19 +15087,19 @@
         <v>310</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C233" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D233" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D233" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E233" s="19" t="n">
-        <v>4184</v>
+        <v>4189</v>
       </c>
       <c r="F233" s="28" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="G233" s="0" t="s">
         <v>312</v>
@@ -15102,7 +15108,7 @@
         <v>309</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J233" s="0" t="s">
         <v>314</v>
@@ -15113,19 +15119,19 @@
         <v>310</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C234" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D234" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D234" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E234" s="19" t="n">
-        <v>4184</v>
+        <v>4189</v>
       </c>
       <c r="F234" s="28" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="G234" s="0" t="s">
         <v>312</v>
@@ -15134,7 +15140,7 @@
         <v>309</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J234" s="0" t="s">
         <v>314</v>
@@ -15145,19 +15151,19 @@
         <v>310</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C235" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D235" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D235" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E235" s="19" t="n">
-        <v>4184</v>
+        <v>4189</v>
       </c>
       <c r="F235" s="28" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="G235" s="0" t="s">
         <v>312</v>
@@ -15166,7 +15172,7 @@
         <v>309</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J235" s="0" t="s">
         <v>314</v>
@@ -15177,19 +15183,19 @@
         <v>311</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C236" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D236" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D236" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E236" s="19" t="n">
-        <v>4204</v>
+        <v>4209</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G236" s="0" t="s">
         <v>312</v>
@@ -15198,7 +15204,7 @@
         <v>309</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J236" s="0" t="s">
         <v>314</v>
@@ -15209,19 +15215,19 @@
         <v>311</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C237" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D237" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D237" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E237" s="19" t="n">
-        <v>4204</v>
+        <v>4209</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G237" s="0" t="s">
         <v>312</v>
@@ -15230,7 +15236,7 @@
         <v>309</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J237" s="0" t="s">
         <v>314</v>
@@ -15241,19 +15247,19 @@
         <v>311</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C238" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="D238" s="27" t="s">
-        <v>316</v>
+        <v>3.8</v>
+      </c>
+      <c r="D238" s="27" t="n">
+        <v>5</v>
       </c>
       <c r="E238" s="19" t="n">
-        <v>4204</v>
+        <v>4209</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G238" s="0" t="s">
         <v>312</v>
@@ -15262,7 +15268,7 @@
         <v>309</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J238" s="0" t="s">
         <v>314</v>
@@ -15270,22 +15276,22 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B239" s="28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C239" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D239" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D239" s="27" t="s">
-        <v>316</v>
-      </c>
       <c r="E239" s="19" t="n">
-        <v>4204</v>
+        <v>4163</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G239" s="0" t="s">
         <v>312</v>
@@ -15302,22 +15308,22 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B240" s="28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C240" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D240" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D240" s="27" t="s">
-        <v>316</v>
-      </c>
       <c r="E240" s="19" t="n">
-        <v>4204</v>
+        <v>4163</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G240" s="0" t="s">
         <v>312</v>
@@ -15334,22 +15340,22 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B241" s="28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C241" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D241" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E241" s="19" t="n">
-        <v>4204</v>
+        <v>4163</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G241" s="0" t="s">
         <v>312</v>
@@ -15358,7 +15364,7 @@
         <v>309</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J241" s="0" t="s">
         <v>314</v>
@@ -15369,19 +15375,19 @@
         <v>307</v>
       </c>
       <c r="B242" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C242" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D242" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D242" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E242" s="19" t="n">
-        <v>4171</v>
+        <v>4163</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="G242" s="0" t="s">
         <v>312</v>
@@ -15390,7 +15396,7 @@
         <v>309</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J242" s="0" t="s">
         <v>314</v>
@@ -15401,19 +15407,19 @@
         <v>307</v>
       </c>
       <c r="B243" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C243" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D243" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D243" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E243" s="19" t="n">
-        <v>4171</v>
+        <v>4163</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="G243" s="0" t="s">
         <v>312</v>
@@ -15422,7 +15428,7 @@
         <v>309</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J243" s="0" t="s">
         <v>314</v>
@@ -15433,19 +15439,19 @@
         <v>307</v>
       </c>
       <c r="B244" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C244" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D244" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D244" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E244" s="19" t="n">
-        <v>4171</v>
+        <v>4163</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="G244" s="0" t="s">
         <v>312</v>
@@ -15454,7 +15460,7 @@
         <v>309</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J244" s="0" t="s">
         <v>314</v>
@@ -15465,19 +15471,19 @@
         <v>310</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C245" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D245" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D245" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E245" s="19" t="n">
-        <v>4214</v>
+        <v>4183</v>
       </c>
       <c r="F245" s="28" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G245" s="0" t="s">
         <v>312</v>
@@ -15486,7 +15492,7 @@
         <v>309</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J245" s="0" t="s">
         <v>314</v>
@@ -15497,19 +15503,19 @@
         <v>310</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C246" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D246" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D246" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E246" s="19" t="n">
-        <v>4214</v>
+        <v>4183</v>
       </c>
       <c r="F246" s="28" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G246" s="0" t="s">
         <v>312</v>
@@ -15518,7 +15524,7 @@
         <v>309</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J246" s="0" t="s">
         <v>314</v>
@@ -15529,19 +15535,19 @@
         <v>310</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C247" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D247" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D247" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E247" s="19" t="n">
-        <v>4214</v>
+        <v>4183</v>
       </c>
       <c r="F247" s="28" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G247" s="0" t="s">
         <v>312</v>
@@ -15550,7 +15556,7 @@
         <v>309</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J247" s="0" t="s">
         <v>314</v>
@@ -15558,22 +15564,22 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C248" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D248" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D248" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E248" s="19" t="n">
-        <v>4215</v>
+        <v>4183</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G248" s="0" t="s">
         <v>312</v>
@@ -15582,7 +15588,7 @@
         <v>309</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J248" s="0" t="s">
         <v>314</v>
@@ -15590,22 +15596,22 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C249" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D249" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D249" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E249" s="19" t="n">
-        <v>4215</v>
+        <v>4183</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>312</v>
@@ -15614,7 +15620,7 @@
         <v>309</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J249" s="0" t="s">
         <v>314</v>
@@ -15622,22 +15628,22 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C250" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D250" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="D250" s="27" t="n">
-        <v>10</v>
-      </c>
       <c r="E250" s="19" t="n">
-        <v>4215</v>
+        <v>4183</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G250" s="0" t="s">
         <v>312</v>
@@ -15646,7 +15652,7 @@
         <v>309</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J250" s="0" t="s">
         <v>314</v>
@@ -15654,22 +15660,22 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B251" s="28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C251" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D251" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D251" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E251" s="19" t="n">
-        <v>4216</v>
+        <v>4203</v>
       </c>
       <c r="F251" s="28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G251" s="0" t="s">
         <v>312</v>
@@ -15678,7 +15684,7 @@
         <v>309</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J251" s="0" t="s">
         <v>314</v>
@@ -15686,22 +15692,22 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B252" s="28" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C252" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D252" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D252" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E252" s="19" t="n">
-        <v>4216</v>
+        <v>4203</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G252" s="0" t="s">
         <v>312</v>
@@ -15710,7 +15716,7 @@
         <v>309</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J252" s="0" t="s">
         <v>314</v>
@@ -15718,22 +15724,22 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C253" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D253" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D253" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E253" s="19" t="n">
-        <v>4216</v>
+        <v>4203</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G253" s="0" t="s">
         <v>312</v>
@@ -15742,7 +15748,7 @@
         <v>309</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J253" s="0" t="s">
         <v>314</v>
@@ -15750,22 +15756,22 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C254" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D254" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D254" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E254" s="19" t="n">
-        <v>4217</v>
+        <v>4203</v>
       </c>
       <c r="F254" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G254" s="0" t="s">
         <v>312</v>
@@ -15774,7 +15780,7 @@
         <v>309</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J254" s="0" t="s">
         <v>314</v>
@@ -15782,22 +15788,22 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C255" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D255" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D255" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E255" s="19" t="n">
-        <v>4217</v>
+        <v>4203</v>
       </c>
       <c r="F255" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G255" s="0" t="s">
         <v>312</v>
@@ -15806,7 +15812,7 @@
         <v>309</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J255" s="0" t="s">
         <v>314</v>
@@ -15814,22 +15820,22 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C256" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D256" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D256" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E256" s="19" t="n">
-        <v>4217</v>
+        <v>4203</v>
       </c>
       <c r="F256" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G256" s="0" t="s">
         <v>312</v>
@@ -15838,7 +15844,7 @@
         <v>309</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J256" s="0" t="s">
         <v>314</v>
@@ -15846,22 +15852,22 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B257" s="28" t="s">
         <v>215</v>
       </c>
       <c r="C257" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D257" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D257" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E257" s="19" t="n">
-        <v>4218</v>
+        <v>4170</v>
       </c>
       <c r="F257" s="28" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="G257" s="0" t="s">
         <v>312</v>
@@ -15870,7 +15876,7 @@
         <v>309</v>
       </c>
       <c r="I257" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J257" s="0" t="s">
         <v>314</v>
@@ -15878,22 +15884,22 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B258" s="28" t="s">
         <v>217</v>
       </c>
       <c r="C258" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D258" s="19" t="s">
-        <v>316</v>
+        <v>5</v>
+      </c>
+      <c r="D258" s="19" t="n">
+        <v>7</v>
       </c>
       <c r="E258" s="19" t="n">
-        <v>4218</v>
+        <v>4170</v>
       </c>
       <c r="F258" s="28" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="G258" s="0" t="s">
         <v>312</v>
@@ -15902,7 +15908,7 @@
         <v>309</v>
       </c>
       <c r="I258" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J258" s="0" t="s">
         <v>314</v>
@@ -15910,33 +15916,1377 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B259" s="28" t="s">
         <v>218</v>
       </c>
       <c r="C259" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D259" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E259" s="19" t="n">
+        <v>4170</v>
+      </c>
+      <c r="F259" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G259" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H259" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I259" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J259" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B260" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C260" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D260" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E260" s="19" t="n">
+        <v>4190</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G260" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H260" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I260" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J260" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B261" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C261" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D261" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E261" s="19" t="n">
+        <v>4190</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H261" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I261" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J261" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B262" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C262" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D262" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E262" s="19" t="n">
+        <v>4190</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G262" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H262" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I262" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J262" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B263" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C263" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D263" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E263" s="19" t="n">
+        <v>4210</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H263" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I263" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J263" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B264" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C264" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D264" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E264" s="19" t="n">
+        <v>4210</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="G264" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H264" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I264" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J264" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B265" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C265" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D265" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E265" s="19" t="n">
+        <v>4210</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="G265" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H265" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I265" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J265" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C266" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E266" s="19" t="n">
+        <v>4164</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G266" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H266" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I266" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J266" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B267" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C267" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E267" s="19" t="n">
+        <v>4164</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H267" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I267" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J267" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B268" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C268" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E268" s="19" t="n">
+        <v>4164</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H268" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I268" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J268" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B269" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C269" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E269" s="19" t="n">
+        <v>4164</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G269" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H269" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I269" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J269" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B270" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C270" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E270" s="19" t="n">
+        <v>4164</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G270" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H270" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I270" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J270" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B271" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C271" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E271" s="19" t="n">
+        <v>4164</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="G271" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H271" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I271" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J271" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B272" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C272" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D272" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E272" s="19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H272" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I272" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J272" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B273" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C273" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E273" s="19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I273" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J273" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B274" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C274" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D274" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E274" s="19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G274" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H274" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I274" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J274" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B275" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C275" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D275" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E275" s="19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G275" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H275" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I275" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J275" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B276" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C276" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D276" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E276" s="19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G276" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H276" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I276" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J276" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C277" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E277" s="19" t="n">
+        <v>4184</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G277" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H277" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I277" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J277" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B278" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C278" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E278" s="19" t="n">
+        <v>4204</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G278" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H278" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I278" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J278" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B279" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C279" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D279" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E279" s="19" t="n">
+        <v>4204</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G279" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H279" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I279" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J279" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B280" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C280" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D280" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E280" s="19" t="n">
+        <v>4204</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H280" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I280" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J280" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C281" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D281" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E281" s="19" t="n">
+        <v>4204</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G281" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H281" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I281" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J281" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B282" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C282" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D282" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E282" s="19" t="n">
+        <v>4204</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H282" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I282" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="J282" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B283" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C283" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D283" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="D259" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="E259" s="19" t="n">
+      <c r="E283" s="19" t="n">
+        <v>4204</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G283" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H283" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I283" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J283" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B284" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C284" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D284" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E284" s="19" t="n">
+        <v>4171</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H284" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I284" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J284" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C285" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D285" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E285" s="19" t="n">
+        <v>4171</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H285" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I285" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J285" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B286" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C286" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D286" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E286" s="19" t="n">
+        <v>4171</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G286" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H286" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I286" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J286" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B287" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C287" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D287" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E287" s="19" t="n">
+        <v>4214</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G287" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H287" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I287" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J287" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B288" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C288" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D288" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E288" s="19" t="n">
+        <v>4214</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G288" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H288" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I288" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J288" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B289" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C289" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D289" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E289" s="19" t="n">
+        <v>4214</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G289" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H289" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I289" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J289" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B290" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C290" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D290" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E290" s="19" t="n">
+        <v>4215</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G290" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H290" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I290" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J290" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B291" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C291" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D291" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E291" s="19" t="n">
+        <v>4215</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G291" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H291" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I291" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J291" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B292" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C292" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D292" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E292" s="19" t="n">
+        <v>4215</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G292" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H292" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I292" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J292" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B293" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C293" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D293" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E293" s="19" t="n">
+        <v>4216</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G293" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H293" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I293" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J293" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B294" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C294" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D294" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E294" s="19" t="n">
+        <v>4216</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G294" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H294" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I294" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J294" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B295" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C295" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D295" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E295" s="19" t="n">
+        <v>4216</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G295" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H295" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I295" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J295" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B296" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C296" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D296" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E296" s="19" t="n">
+        <v>4217</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H296" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I296" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J296" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B297" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C297" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D297" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E297" s="19" t="n">
+        <v>4217</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H297" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I297" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J297" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B298" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C298" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D298" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E298" s="19" t="n">
+        <v>4217</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H298" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I298" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J298" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B299" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C299" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D299" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E299" s="19" t="n">
         <v>4218</v>
       </c>
-      <c r="F259" s="28" t="s">
+      <c r="F299" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="G259" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="H259" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I259" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="J259" s="0" t="s">
+      <c r="G299" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H299" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I299" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J299" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B300" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C300" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D300" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E300" s="19" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="G300" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H300" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I300" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J300" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B301" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C301" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="D301" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E301" s="19" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="G301" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H301" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I301" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="J301" s="0" t="s">
         <v>314</v>
       </c>
     </row>
@@ -15960,24 +17310,24 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B57:B60 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="500.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -15999,7 +17349,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B57:B60 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16010,12 +17360,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="72.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -16037,30 +17387,30 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B57:B60 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
@@ -48,16 +49,16 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
@@ -82,6 +83,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -104,10 +106,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -119,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="346">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -430,6 +433,9 @@
   </si>
   <si>
     <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Суммарный размер выкладки всей категории (в метрах)на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ НАПОЛНИТЕЛЕЙ)</t>
@@ -714,9 +720,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hanger MARS Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Количество навесок с лакомтсвами собак (dentastix)</t>
@@ -1714,28 +1717,28 @@
   </sheetPr>
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="I38" activeCellId="1" sqref="B57:B60 I38"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -3068,7 +3071,9 @@
       <c r="O23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q23" s="10" t="s">
         <v>36</v>
       </c>
@@ -3101,10 +3106,10 @@
         <v>28</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>91</v>
@@ -3158,16 +3163,16 @@
         <v>28</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>80</v>
@@ -3180,7 +3185,7 @@
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -3215,10 +3220,10 @@
         <v>28</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>91</v>
@@ -3230,7 +3235,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M26" s="10" t="n">
         <v>0</v>
@@ -3239,7 +3244,9 @@
       <c r="O26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="10"/>
+      <c r="P26" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q26" s="10" t="s">
         <v>36</v>
       </c>
@@ -3272,10 +3279,10 @@
         <v>28</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>91</v>
@@ -3326,19 +3333,19 @@
         <v>27</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>80</v>
@@ -3379,19 +3386,19 @@
         <v>27</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>80</v>
@@ -3432,19 +3439,19 @@
         <v>27</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>80</v>
@@ -3485,19 +3492,19 @@
         <v>27</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>80</v>
@@ -3541,16 +3548,16 @@
         <v>28</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>80</v>
@@ -3563,7 +3570,7 @@
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
@@ -3598,16 +3605,16 @@
         <v>76</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>80</v>
@@ -3620,7 +3627,7 @@
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10" t="s">
@@ -3628,14 +3635,14 @@
       </c>
       <c r="R33" s="10"/>
       <c r="S33" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -3659,16 +3666,16 @@
         <v>76</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>80</v>
@@ -3681,7 +3688,9 @@
       <c r="O34" s="10" t="n">
         <v>4306</v>
       </c>
-      <c r="P34" s="10"/>
+      <c r="P34" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -3709,19 +3718,19 @@
         <v>27</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>80</v>
@@ -3762,19 +3771,19 @@
         <v>27</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>80</v>
@@ -3815,19 +3824,19 @@
         <v>27</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>80</v>
@@ -3868,19 +3877,19 @@
         <v>27</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>80</v>
@@ -3924,16 +3933,16 @@
         <v>76</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>80</v>
@@ -3977,16 +3986,16 @@
         <v>76</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>80</v>
@@ -4030,16 +4039,16 @@
         <v>76</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>80</v>
@@ -4083,10 +4092,10 @@
         <v>76</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>79</v>
@@ -4101,7 +4110,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="10" t="s">
@@ -4136,10 +4145,10 @@
         <v>76</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>79</v>
@@ -4154,7 +4163,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10" t="s">
@@ -4189,13 +4198,13 @@
         <v>76</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
@@ -4207,7 +4216,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10" t="s">
@@ -4222,7 +4231,7 @@
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
@@ -4243,16 +4252,16 @@
         <v>27</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
@@ -4264,7 +4273,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10" t="s">
@@ -4296,16 +4305,16 @@
         <v>27</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
@@ -4349,16 +4358,16 @@
         <v>27</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
@@ -4370,11 +4379,11 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
@@ -4402,19 +4411,19 @@
         <v>27</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>42</v>
@@ -4425,12 +4434,12 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -4455,19 +4464,19 @@
         <v>27</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>42</v>
@@ -4478,14 +4487,14 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S49" s="10" t="s">
         <v>35</v>
@@ -4512,7 +4521,7 @@
         <v>27</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>168</v>
@@ -4521,10 +4530,10 @@
         <v>169</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>42</v>
@@ -4538,7 +4547,7 @@
         <v>170</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10" t="s">
@@ -4569,7 +4578,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>171</v>
@@ -4581,7 +4590,7 @@
         <v>173</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>80</v>
@@ -4597,7 +4606,7 @@
         <v>174</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10" t="s">
@@ -4626,7 +4635,7 @@
         <v>27</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>175</v>
@@ -4638,7 +4647,7 @@
         <v>173</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>80</v>
@@ -4654,7 +4663,7 @@
         <v>177</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10" t="s">
@@ -4683,19 +4692,19 @@
         <v>27</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>178</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>80</v>
@@ -4734,19 +4743,19 @@
         <v>27</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>179</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>80</v>
@@ -4785,19 +4794,19 @@
         <v>27</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>180</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>80</v>
@@ -4836,19 +4845,19 @@
         <v>27</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>181</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>80</v>
@@ -4895,14 +4904,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B57:B60 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4936,15 +4945,15 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="B57:B60 B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5079,12 +5088,12 @@
   <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="B57:B60 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5149,27 +5158,27 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="1" sqref="B57:B60 A12"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -5270,19 +5279,19 @@
         <v>182</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>42</v>
@@ -5293,14 +5302,14 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>35</v>
@@ -5327,7 +5336,7 @@
         <v>182</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>168</v>
@@ -5336,10 +5345,10 @@
         <v>169</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>42</v>
@@ -5353,7 +5362,7 @@
         <v>170</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
@@ -5384,19 +5393,19 @@
         <v>182</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>80</v>
@@ -5435,19 +5444,19 @@
         <v>182</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>80</v>
@@ -5486,19 +5495,19 @@
         <v>182</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>185</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>80</v>
@@ -5566,7 +5575,9 @@
       <c r="O7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q7" s="10" t="s">
         <v>36</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>186</v>
@@ -5656,10 +5667,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>91</v>
@@ -5671,7 +5682,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="10" t="n">
         <v>0</v>
@@ -5680,7 +5691,9 @@
       <c r="O9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="10"/>
+      <c r="P9" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q9" s="10" t="s">
         <v>36</v>
       </c>
@@ -5795,7 +5808,7 @@
         <v>45</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -5928,19 +5941,19 @@
         <v>182</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>196</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>80</v>
@@ -5981,7 +5994,7 @@
         <v>182</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>198</v>
@@ -6038,7 +6051,7 @@
         <v>182</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>200</v>
@@ -6095,7 +6108,7 @@
         <v>182</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>201</v>
@@ -6152,7 +6165,7 @@
         <v>182</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>202</v>
@@ -6209,7 +6222,7 @@
         <v>182</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>203</v>
@@ -6266,7 +6279,7 @@
         <v>182</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>204</v>
@@ -6323,7 +6336,7 @@
         <v>182</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>205</v>
@@ -6384,13 +6397,13 @@
         <v>206</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>80</v>
@@ -6432,16 +6445,16 @@
         <v>76</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>80</v>
@@ -6488,10 +6501,10 @@
         <v>207</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
@@ -6503,7 +6516,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10" t="s">
@@ -6518,7 +6531,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
@@ -6593,16 +6606,16 @@
         <v>76</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>80</v>
@@ -6677,7 +6690,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AA3"/>
+  <autoFilter ref="A1:AA27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6697,13 +6710,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B57:B60 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6878,14 +6891,14 @@
   <dimension ref="1:58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="B57:B60 B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7742,13 +7755,13 @@
   <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B57:B60 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7810,21 +7823,21 @@
   </sheetPr>
   <dimension ref="1:301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57:B60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17311,12 +17324,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B57:B60 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -17349,7 +17362,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B57:B60 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17387,15 +17400,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B57:B60 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
@@ -57,17 +58,17 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
@@ -92,6 +93,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -119,10 +121,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1793,29 +1796,31 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.6599190283401"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.9878542510121"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -1950,7 +1955,9 @@
       <c r="N2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" s="10" t="n">
         <v>2</v>
       </c>
@@ -2013,7 +2020,9 @@
       <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="10" t="n">
         <v>2</v>
       </c>
@@ -3043,7 +3052,9 @@
       <c r="N19" s="10" t="n">
         <v>776682</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" s="10" t="n">
         <v>8</v>
       </c>
@@ -3100,7 +3111,9 @@
       <c r="N20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="13" t="s">
         <v>85</v>
@@ -3159,7 +3172,9 @@
       <c r="N21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="13" t="s">
         <v>88</v>
@@ -3218,7 +3233,9 @@
       <c r="N22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O22" s="10"/>
+      <c r="O22" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="13" t="s">
         <v>91</v>
@@ -4436,7 +4453,9 @@
       <c r="N42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O42" s="10"/>
+      <c r="O42" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="15" t="s">
         <v>140</v>
@@ -4495,7 +4514,9 @@
       <c r="N43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O43" s="10"/>
+      <c r="O43" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="13" t="s">
         <v>143</v>
@@ -4554,7 +4575,9 @@
       <c r="N44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O44" s="10"/>
+      <c r="O44" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="13" t="s">
         <v>147</v>
@@ -4617,7 +4640,9 @@
       <c r="N45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O45" s="10"/>
+      <c r="O45" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="13" t="s">
         <v>153</v>
@@ -4676,7 +4701,9 @@
       <c r="N46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O46" s="10"/>
+      <c r="O46" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="13" t="s">
         <v>91</v>
@@ -4735,7 +4762,9 @@
       <c r="N47" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O47" s="10"/>
+      <c r="O47" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10" t="s">
         <v>159</v>
@@ -4796,7 +4825,9 @@
       <c r="N48" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O48" s="10"/>
+      <c r="O48" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10" t="s">
         <v>166</v>
@@ -4855,7 +4886,9 @@
       <c r="N49" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O49" s="10"/>
+      <c r="O49" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10" t="s">
         <v>170</v>
@@ -4918,7 +4951,9 @@
       <c r="N50" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O50" s="10"/>
+      <c r="O50" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10" t="s">
         <v>173</v>
@@ -4981,7 +5016,9 @@
       <c r="N51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O51" s="10"/>
+      <c r="O51" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P51" s="10" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +5081,9 @@
       <c r="N52" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="10"/>
+      <c r="O52" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P52" s="10" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5773,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5774,10 +5813,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5917,7 +5956,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5975,7 +6014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFCCFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5986,26 +6025,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.6599190283401"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -6099,7 +6138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>2019</v>
@@ -6138,7 +6177,9 @@
       <c r="N2" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
         <v>170</v>
@@ -6162,7 +6203,7 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2019</v>
@@ -6201,7 +6242,9 @@
       <c r="N3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10" t="s">
         <v>173</v>
@@ -6225,7 +6268,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="n">
         <v>2019</v>
@@ -6282,7 +6325,7 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="n">
         <v>2019</v>
@@ -6339,7 +6382,7 @@
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="n">
         <v>2019</v>
@@ -6396,7 +6439,7 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>2261</v>
       </c>
@@ -6461,7 +6504,7 @@
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>2262</v>
       </c>
@@ -6524,7 +6567,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>2265</v>
       </c>
@@ -6589,7 +6632,7 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>2266</v>
       </c>
@@ -6652,7 +6695,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="n">
         <v>2019</v>
@@ -6833,7 +6876,7 @@
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="n">
         <v>2019</v>
@@ -7331,7 +7374,7 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="n">
         <v>2019</v>
@@ -7388,7 +7431,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="n">
         <v>2019</v>
@@ -7445,7 +7488,7 @@
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
         <v>2316</v>
       </c>
@@ -7484,7 +7527,9 @@
       <c r="N24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="10"/>
+      <c r="O24" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="13" t="s">
         <v>147</v>
@@ -7508,7 +7553,7 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>229</v>
       </c>
@@ -7547,7 +7592,9 @@
       <c r="N25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="10"/>
+      <c r="O25" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="13" t="s">
         <v>91</v>
@@ -7567,7 +7614,7 @@
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="n">
         <v>2019</v>
@@ -7624,7 +7671,7 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="n">
         <v>2019</v>
@@ -7661,7 +7708,9 @@
       <c r="N27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O27" s="10"/>
+      <c r="O27" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -7721,13 +7770,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AC27">
-    <filterColumn colId="11">
-      <customFilters and="true">
-        <customFilter operator="equal" val="SKUs"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7752,8 +7795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7934,8 +7977,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8797,8 +8840,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8867,14 +8910,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18366,7 +18409,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18442,10 +18485,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
@@ -44,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
@@ -67,17 +68,17 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
@@ -102,6 +103,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -134,10 +136,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1318,11 +1321,11 @@
 4607065376062,
 4607065372057,
 5000159373111,
-5000159438698,
+5000159438735,
 4011100157361,
 4607065003838,
 4607065735982,
-5000159438674,
+5000159445160,
 4607065374877,
 4607065375034,
 4607065378387,
@@ -1341,8 +1344,8 @@
 4607065371180,
 4607065371227,
 4607065732820,
-5000159438735,
-4770608256067,
+4607065737023,
+4607065737061,
 4607065372804</t>
   </si>
   <si>
@@ -1417,7 +1420,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1454,6 +1457,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1720,7 +1729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1736,15 +1745,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1845,7 +1854,7 @@
   </sheetPr>
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
@@ -1857,20 +1866,20 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="111.295546558704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="112.368421052632"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -5821,8 +5830,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5861,10 +5870,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6004,7 +6013,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6080,19 +6089,19 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="111.295546558704"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="112.368421052632"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -7843,8 +7852,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -8025,8 +8034,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="22" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8888,8 +8897,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8958,14 +8967,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="24" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="22" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18452,13 +18461,13 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18534,10 +18543,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
